--- a/Data/EC/NIT-9006712001.xlsx
+++ b/Data/EC/NIT-9006712001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0208F64F-E51A-42FD-B7B1-FFFBDC2DCB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5B6CB8-2D57-4A3A-A975-3B4EBD6238A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96F17121-0374-4A96-A09F-767D3F429D1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA7F70A5-F655-46DE-85CC-03C56D6754B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="136">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,343 +71,346 @@
     <t>OCTAVIO ENRIQUE BATISTA CORTES</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047387537</t>
+  </si>
+  <si>
+    <t>JORGE IVAN ALFARO CARBAL</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>1047480056</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE PERTUZ PEREZ</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2301</t>
   </si>
   <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047387537</t>
-  </si>
-  <si>
-    <t>JORGE IVAN ALFARO CARBAL</t>
-  </si>
-  <si>
-    <t>1047480056</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE PERTUZ PEREZ</t>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -506,7 +509,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -519,9 +524,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -721,23 +724,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,10 +768,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,7 +824,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2617BDD-08D3-E067-48FB-108BC8919DCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A166FEB-9620-84F2-C1CD-F5D2B4850EAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,8 +1175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE03DA92-D41E-40C9-8ED8-457ECCA15F9B}">
-  <dimension ref="B2:J214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666738F6-12D9-4AA3-A8DC-3A837C281492}">
+  <dimension ref="B2:J215"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1197,7 +1200,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1242,7 +1245,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1274,12 +1277,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6061060</v>
+        <v>6096172</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1290,17 +1293,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1327,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1350,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1364,16 +1367,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1393,10 +1396,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1410,16 +1413,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1442,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1456,16 +1459,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1485,10 +1488,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1502,16 +1505,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1531,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1548,16 +1551,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1577,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1594,16 +1597,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1623,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1640,16 +1643,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1669,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1686,16 +1689,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1715,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1732,16 +1735,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1761,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1778,16 +1781,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1807,10 +1810,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1824,16 +1827,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1853,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1870,16 +1873,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1899,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1916,16 +1919,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1945,10 +1948,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1962,16 +1965,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1991,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -2008,16 +2011,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -2037,10 +2040,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2054,16 +2057,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2083,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2100,16 +2103,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2129,10 +2132,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2146,16 +2149,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2175,10 +2178,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2192,16 +2195,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2221,10 +2224,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2238,16 +2241,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2267,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2284,16 +2287,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2313,10 +2316,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2330,16 +2333,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2359,10 +2362,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2376,16 +2379,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2405,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2422,16 +2425,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2451,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2468,16 +2471,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2497,10 +2500,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2514,16 +2517,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2543,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2560,16 +2563,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2589,10 +2592,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2606,16 +2609,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2635,10 +2638,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2652,16 +2655,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2681,10 +2684,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2698,16 +2701,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2727,10 +2730,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2744,16 +2747,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2773,10 +2776,10 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2790,16 +2793,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2819,10 +2822,10 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2836,16 +2839,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2865,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2882,16 +2885,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2911,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2928,16 +2931,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2957,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2974,16 +2977,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -3003,10 +3006,10 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3020,16 +3023,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -3049,10 +3052,10 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3066,16 +3069,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3095,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3112,16 +3115,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3141,10 +3144,10 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3158,13 +3161,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3181,13 +3184,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3204,13 +3207,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3227,13 +3230,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3250,13 +3253,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3273,13 +3276,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3296,13 +3299,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3319,13 +3322,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3342,13 +3345,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3365,13 +3368,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3388,13 +3391,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3411,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3434,13 +3437,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3457,13 +3460,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3480,13 +3483,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3503,13 +3506,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3526,13 +3529,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3549,13 +3552,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3572,13 +3575,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3595,13 +3598,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3618,13 +3621,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3641,13 +3644,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3664,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3687,19 +3690,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>28090</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3710,13 +3713,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3733,13 +3736,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3756,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3779,13 +3782,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3802,13 +3805,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3825,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F124" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3848,16 +3851,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F125" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3871,16 +3874,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F126" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3894,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F127" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3917,16 +3920,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F128" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3940,16 +3943,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F129" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3963,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F130" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3986,16 +3989,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F131" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
         <v>781242</v>
@@ -4009,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F132" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4032,16 +4035,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F133" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
         <v>781242</v>
@@ -4055,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F134" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4078,16 +4081,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F135" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
         <v>781242</v>
@@ -4101,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F136" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4124,16 +4127,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F137" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
         <v>781242</v>
@@ -4147,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F138" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4170,16 +4173,16 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F139" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
         <v>781242</v>
@@ -4193,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F140" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4216,16 +4219,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F141" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
         <v>781242</v>
@@ -4239,19 +4242,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F142" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4262,16 +4265,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F143" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
         <v>781242</v>
@@ -4285,19 +4288,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F144" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4308,16 +4311,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F145" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
         <v>781242</v>
@@ -4331,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F146" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4354,16 +4357,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F147" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
         <v>781242</v>
@@ -4377,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F148" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4400,16 +4403,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F149" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
         <v>781242</v>
@@ -4423,13 +4426,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F150" s="18">
         <v>35112</v>
@@ -4446,19 +4449,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F151" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4469,13 +4472,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F152" s="18">
         <v>35112</v>
@@ -4492,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F153" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4515,13 +4518,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F154" s="18">
         <v>35112</v>
@@ -4538,19 +4541,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F155" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4561,13 +4564,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F156" s="18">
         <v>35112</v>
@@ -4584,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F157" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4607,13 +4610,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F158" s="18">
         <v>35112</v>
@@ -4630,19 +4633,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F159" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4653,13 +4656,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F160" s="18">
         <v>35112</v>
@@ -4676,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F161" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4699,13 +4702,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F162" s="18">
         <v>35112</v>
@@ -4722,19 +4725,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F163" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4745,13 +4748,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F164" s="18">
         <v>35112</v>
@@ -4768,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F165" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4791,13 +4794,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F166" s="18">
         <v>35112</v>
@@ -4814,19 +4817,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F167" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4837,13 +4840,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F168" s="18">
         <v>35112</v>
@@ -4860,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F169" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4883,13 +4886,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F170" s="18">
         <v>35112</v>
@@ -4906,19 +4909,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F171" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4929,13 +4932,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F172" s="18">
         <v>35112</v>
@@ -4952,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F173" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4975,13 +4978,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F174" s="18">
         <v>35112</v>
@@ -4998,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D175" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="F175" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5021,13 +5024,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="F176" s="18">
         <v>35112</v>
@@ -5044,19 +5047,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E177" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="F177" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5067,13 +5070,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D178" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="F178" s="18">
         <v>35112</v>
@@ -5090,13 +5093,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F179" s="18">
         <v>35112</v>
@@ -5113,13 +5116,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F180" s="18">
         <v>35112</v>
@@ -5136,13 +5139,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="F181" s="18">
         <v>35112</v>
@@ -5159,13 +5162,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="F182" s="18">
         <v>35112</v>
@@ -5182,13 +5185,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F183" s="18">
         <v>35112</v>
@@ -5205,13 +5208,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="F184" s="18">
         <v>35112</v>
@@ -5228,13 +5231,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F185" s="18">
         <v>35112</v>
@@ -5251,13 +5254,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F186" s="18">
         <v>35112</v>
@@ -5274,13 +5277,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F187" s="18">
         <v>35112</v>
@@ -5297,13 +5300,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F188" s="18">
         <v>35112</v>
@@ -5320,13 +5323,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F189" s="18">
         <v>35112</v>
@@ -5343,13 +5346,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F190" s="18">
         <v>35112</v>
@@ -5366,13 +5369,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F191" s="18">
         <v>35112</v>
@@ -5389,13 +5392,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F192" s="18">
         <v>35112</v>
@@ -5412,13 +5415,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F193" s="18">
         <v>35112</v>
@@ -5435,13 +5438,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F194" s="18">
         <v>35112</v>
@@ -5458,13 +5461,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F195" s="18">
         <v>35112</v>
@@ -5481,13 +5484,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F196" s="18">
         <v>35112</v>
@@ -5504,13 +5507,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F197" s="18">
         <v>35112</v>
@@ -5527,13 +5530,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="F198" s="18">
         <v>35112</v>
@@ -5550,13 +5553,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="F199" s="18">
         <v>35112</v>
@@ -5573,13 +5576,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="F200" s="18">
         <v>35112</v>
@@ -5596,13 +5599,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F201" s="18">
         <v>35112</v>
@@ -5619,13 +5622,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="F202" s="18">
         <v>35112</v>
@@ -5642,13 +5645,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="F203" s="18">
         <v>35112</v>
@@ -5665,13 +5668,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F204" s="18">
         <v>35112</v>
@@ -5688,13 +5691,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F205" s="18">
         <v>35112</v>
@@ -5711,13 +5714,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="F206" s="18">
         <v>35112</v>
@@ -5734,13 +5737,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="F207" s="18">
         <v>35112</v>
@@ -5753,42 +5756,54 @@
       <c r="J207" s="20"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D208" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E208" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F208" s="24">
-        <v>28090</v>
-      </c>
-      <c r="G208" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H208" s="25"/>
-      <c r="I208" s="25"/>
-      <c r="J208" s="26"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C213" s="32"/>
-      <c r="H213" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
+      <c r="B208" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F208" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G208" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F209" s="24">
+        <v>35112</v>
+      </c>
+      <c r="G209" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H209" s="25"/>
+      <c r="I209" s="25"/>
+      <c r="J209" s="26"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C214" s="32"/>
       <c r="H214" s="1" t="s">
@@ -5797,12 +5812,23 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C215" s="32"/>
+      <c r="H215" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B215:C215"/>
     <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="H215:J215"/>
     <mergeCell ref="H214:J214"/>
-    <mergeCell ref="H213:J213"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
